--- a/Feedy-UI/Resources/Language/language.xlsx
+++ b/Feedy-UI/Resources/Language/language.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Feedy\Feedy\Resources\Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Feedy\Feedy-UI\Resources\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A373E-B143-46FE-8C76-7D586EE4DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11155B83-9DE3-4EF2-83CE-996CD0738C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="5265" windowWidth="24645" windowHeight="10470" activeTab="1" xr2:uid="{EEDC9A99-F2AD-4820-8496-BFF8EB64B38C}"/>
+    <workbookView xWindow="5130" yWindow="5265" windowWidth="24645" windowHeight="10470" xr2:uid="{EEDC9A99-F2AD-4820-8496-BFF8EB64B38C}"/>
   </bookViews>
   <sheets>
     <sheet name="EZ-Editor" sheetId="1" r:id="rId1"/>
     <sheet name="Errors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EZ-Editor'!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EZ-Editor'!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
   <si>
     <t>Job</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>Feedy.Models.User</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Konfiguration</t>
   </si>
 </sst>
 </file>
@@ -823,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,32 +889,17 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C12" si="0">_xlfn.TEXTJOIN(".",,A2,B2)</f>
-        <v>Feedy.Views.Main.Menu.Events</v>
+        <f t="shared" ref="C2" si="0">_xlfn.TEXTJOIN(".",,A2,B2)</f>
+        <v>Feedy.Views.Main.Menu.Config</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -913,32 +907,32 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.Main.Menu.File</v>
+        <f t="shared" ref="C3:C13" si="1">_xlfn.TEXTJOIN(".",,A3,B3)</f>
+        <v>Feedy.Views.Main.Menu.Events</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -946,32 +940,32 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.Main.Menu.Job</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.Main.Menu.File</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -979,32 +973,32 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.Main.Menu.Log</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.Main.Menu.Job</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1012,65 +1006,65 @@
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.Main.Menu.Settings</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.Main.Menu.Log</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.SettingsView.SettingsView.DisplayWidth</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.Main.Menu.Settings</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1078,32 +1072,32 @@
         <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.SettingsView.SettingsView.IpAddress</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.SettingsView.SettingsView.DisplayWidth</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,32 +1105,32 @@
         <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.SettingsView.SettingsView.Language</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.SettingsView.SettingsView.IpAddress</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1144,65 +1138,65 @@
         <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.SettingsView.SettingsView.Settings</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.SettingsView.SettingsView.Language</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.JobView.JobView.TB_Job</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.SettingsView.SettingsView.Settings</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1210,65 +1204,65 @@
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>Feedy.Views.JobView.JobView.TB_Description</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.JobView.JobView.TB_Job</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:C17" si="1">_xlfn.TEXTJOIN(".",,A13,B13)</f>
-        <v>Feedy.Views.EventsView.EventsView.TB_Events</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.JobView.JobView.TB_Description</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1276,32 +1270,32 @@
         <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Time</v>
+        <f t="shared" ref="C14:C18" si="2">_xlfn.TEXTJOIN(".",,A14,B14)</f>
+        <v>Feedy.Views.EventsView.EventsView.TB_Events</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,32 +1303,32 @@
         <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Error</v>
+        <f t="shared" si="2"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Time</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,32 +1336,32 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Message</v>
+        <f t="shared" si="2"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Error</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1375,65 +1369,65 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Info</v>
+        <f t="shared" si="2"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Message</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:C25" si="2">_xlfn.TEXTJOIN(".",,A18,B18)</f>
-        <v>Feedy.Views.LogView.LogView.TB_Log</v>
+        <f t="shared" si="2"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Info</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,32 +1435,32 @@
         <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Views.LogView.LogView.Col_Time</v>
+        <f t="shared" ref="C19:C26" si="3">_xlfn.TEXTJOIN(".",,A19,B19)</f>
+        <v>Feedy.Views.LogView.LogView.TB_Log</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1474,32 +1468,32 @@
         <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Views.LogView.LogView.Col_Error</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.LogView.LogView.Col_Time</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1507,32 +1501,32 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Views.LogView.LogView.Col_Message</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.LogView.LogView.Col_Error</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1540,65 +1534,65 @@
         <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Views.LogView.LogView.Col_Info</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.LogView.LogView.Col_Message</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Models.User.USER_operator</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.LogView.LogView.Col_Info</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1606,32 +1600,32 @@
         <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Models.User.USER_supervisor</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Models.User.USER_operator</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1639,38 +1633,71 @@
         <v>130</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v>Feedy.Models.User.USER_supervisor</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="2"/>
+      <c r="C26" t="str">
+        <f t="shared" si="3"/>
         <v>Feedy.Models.User.USER_service</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>45</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>45</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>108</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>60</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>123</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J26" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E25" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
-      <sortCondition ref="C1:C6"/>
+  <autoFilter ref="A1:E26" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+      <sortCondition ref="C1:C7"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1682,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5A5E8C-DCD3-442E-B741-5B79124BF40B}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD104"/>
     </sheetView>
   </sheetViews>

--- a/Feedy-UI/Resources/Language/language.xlsx
+++ b/Feedy-UI/Resources/Language/language.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Feedy\Feedy-UI\Resources\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11155B83-9DE3-4EF2-83CE-996CD0738C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE2F9B-F82F-495E-A3F8-9CA21322ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="5265" windowWidth="24645" windowHeight="10470" xr2:uid="{EEDC9A99-F2AD-4820-8496-BFF8EB64B38C}"/>
+    <workbookView xWindow="8865" yWindow="1725" windowWidth="24645" windowHeight="17865" xr2:uid="{EEDC9A99-F2AD-4820-8496-BFF8EB64B38C}"/>
   </bookViews>
   <sheets>
     <sheet name="EZ-Editor" sheetId="1" r:id="rId1"/>
     <sheet name="Errors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EZ-Editor'!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EZ-Editor'!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
   <si>
     <t>Job</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>Konfiguration</t>
+  </si>
+  <si>
+    <t>PickPlace</t>
+  </si>
+  <si>
+    <t>Pick&amp;Place</t>
   </si>
 </sst>
 </file>
@@ -832,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C13" si="1">_xlfn.TEXTJOIN(".",,A3,B3)</f>
+        <f t="shared" ref="C3:C14" si="1">_xlfn.TEXTJOIN(".",,A3,B3)</f>
         <v>Feedy.Views.Main.Menu.Events</v>
       </c>
       <c r="D3" t="s">
@@ -1069,35 +1075,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>Feedy.Views.SettingsView.SettingsView.DisplayWidth</v>
+        <f t="shared" ref="C8" si="2">_xlfn.TEXTJOIN(".",,A8,B8)</f>
+        <v>Feedy.Views.Main.Menu.PickPlace</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,32 +1093,32 @@
         <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.SettingsView.SettingsView.IpAddress</v>
+        <v>Feedy.Views.SettingsView.SettingsView.DisplayWidth</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1138,32 +1126,32 @@
         <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.SettingsView.SettingsView.Language</v>
+        <v>Feedy.Views.SettingsView.SettingsView.IpAddress</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1171,65 +1159,65 @@
         <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.SettingsView.SettingsView.Settings</v>
+        <v>Feedy.Views.SettingsView.SettingsView.Language</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.JobView.JobView.TB_Job</v>
+        <v>Feedy.Views.SettingsView.SettingsView.Settings</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1237,65 +1225,65 @@
         <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.JobView.JobView.TB_Description</v>
+        <v>Feedy.Views.JobView.JobView.TB_Job</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ref="C14:C18" si="2">_xlfn.TEXTJOIN(".",,A14,B14)</f>
-        <v>Feedy.Views.EventsView.EventsView.TB_Events</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.JobView.JobView.TB_Description</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1303,32 +1291,32 @@
         <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Time</v>
+        <f t="shared" ref="C15:C19" si="3">_xlfn.TEXTJOIN(".",,A15,B15)</f>
+        <v>Feedy.Views.EventsView.EventsView.TB_Events</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1336,32 +1324,32 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Error</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Time</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1369,32 +1357,32 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Message</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Error</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1402,65 +1390,65 @@
         <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="2"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Info</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Message</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C26" si="3">_xlfn.TEXTJOIN(".",,A19,B19)</f>
-        <v>Feedy.Views.LogView.LogView.TB_Log</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Info</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1468,32 +1456,32 @@
         <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="3"/>
-        <v>Feedy.Views.LogView.LogView.Col_Time</v>
+        <f t="shared" ref="C20:C27" si="4">_xlfn.TEXTJOIN(".",,A20,B20)</f>
+        <v>Feedy.Views.LogView.LogView.TB_Log</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1501,32 +1489,32 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="3"/>
-        <v>Feedy.Views.LogView.LogView.Col_Error</v>
+        <f t="shared" si="4"/>
+        <v>Feedy.Views.LogView.LogView.Col_Time</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,32 +1522,32 @@
         <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="3"/>
-        <v>Feedy.Views.LogView.LogView.Col_Message</v>
+        <f t="shared" si="4"/>
+        <v>Feedy.Views.LogView.LogView.Col_Error</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1567,65 +1555,65 @@
         <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="3"/>
-        <v>Feedy.Views.LogView.LogView.Col_Info</v>
+        <f t="shared" si="4"/>
+        <v>Feedy.Views.LogView.LogView.Col_Message</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="3"/>
-        <v>Feedy.Models.User.USER_operator</v>
+        <f t="shared" si="4"/>
+        <v>Feedy.Views.LogView.LogView.Col_Info</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1633,32 +1621,32 @@
         <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="3"/>
-        <v>Feedy.Models.User.USER_supervisor</v>
+        <f t="shared" si="4"/>
+        <v>Feedy.Models.User.USER_operator</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1666,37 +1654,70 @@
         <v>130</v>
       </c>
       <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="4"/>
+        <v>Feedy.Models.User.USER_supervisor</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="3"/>
+      <c r="C27" t="str">
+        <f t="shared" si="4"/>
         <v>Feedy.Models.User.USER_service</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>45</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>108</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>60</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>123</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J27" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E26" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+  <autoFilter ref="A1:E27" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
       <sortCondition ref="C1:C7"/>
     </sortState>
   </autoFilter>

--- a/Feedy-UI/Resources/Language/language.xlsx
+++ b/Feedy-UI/Resources/Language/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Feedy\Feedy-UI\Resources\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE2F9B-F82F-495E-A3F8-9CA21322ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE16791-FE38-4299-AA1D-F9E9A99F693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="1725" windowWidth="24645" windowHeight="17865" xr2:uid="{EEDC9A99-F2AD-4820-8496-BFF8EB64B38C}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15285" xr2:uid="{EEDC9A99-F2AD-4820-8496-BFF8EB64B38C}"/>
   </bookViews>
   <sheets>
     <sheet name="EZ-Editor" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="135">
   <si>
     <t>Job</t>
   </si>
@@ -461,16 +461,13 @@
     <t>Config</t>
   </si>
   <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Konfiguration</t>
-  </si>
-  <si>
     <t>PickPlace</t>
   </si>
   <si>
     <t>Pick&amp;Place</t>
+  </si>
+  <si>
+    <t>Konfig</t>
   </si>
 </sst>
 </file>
@@ -842,7 +839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +899,10 @@
         <v>Feedy.Views.Main.Menu.Config</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1078,14 +1075,14 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ref="C8" si="2">_xlfn.TEXTJOIN(".",,A8,B8)</f>
         <v>Feedy.Views.Main.Menu.PickPlace</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">

--- a/Feedy-UI/Resources/Language/language.xlsx
+++ b/Feedy-UI/Resources/Language/language.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Feedy\Feedy-UI\Resources\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE16791-FE38-4299-AA1D-F9E9A99F693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E266465D-9516-4CA1-BED4-38840D577A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15285" xr2:uid="{EEDC9A99-F2AD-4820-8496-BFF8EB64B38C}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="28800" windowHeight="15345" xr2:uid="{EEDC9A99-F2AD-4820-8496-BFF8EB64B38C}"/>
   </bookViews>
   <sheets>
     <sheet name="EZ-Editor" sheetId="1" r:id="rId1"/>
     <sheet name="Errors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EZ-Editor'!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EZ-Editor'!$A$1:$E$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>Job</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>Konfig</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -835,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,22 +890,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">_xlfn.TEXTJOIN(".",,A2,B2)</f>
-        <v>Feedy.Views.Main.Menu.Config</v>
+        <f t="shared" ref="C2:C3" si="0">_xlfn.TEXTJOIN(".",,A2,B2)</f>
+        <v>Feedy.Views.Main.Menu.Home</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -910,32 +910,17 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C14" si="1">_xlfn.TEXTJOIN(".",,A3,B3)</f>
-        <v>Feedy.Views.Main.Menu.Events</v>
+        <f t="shared" si="0"/>
+        <v>Feedy.Views.Main.Menu.Config</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -943,32 +928,32 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>Feedy.Views.Main.Menu.File</v>
+        <f t="shared" ref="C4:C15" si="1">_xlfn.TEXTJOIN(".",,A4,B4)</f>
+        <v>Feedy.Views.Main.Menu.Events</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -976,32 +961,32 @@
         <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.Main.Menu.Job</v>
+        <v>Feedy.Views.Main.Menu.File</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1009,32 +994,32 @@
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.Main.Menu.Log</v>
+        <v>Feedy.Views.Main.Menu.Job</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1042,32 +1027,32 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.Main.Menu.Settings</v>
+        <v>Feedy.Views.Main.Menu.Log</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1075,47 +1060,47 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ref="C8" si="2">_xlfn.TEXTJOIN(".",,A8,B8)</f>
-        <v>Feedy.Views.Main.Menu.PickPlace</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.Main.Menu.Settings</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>Feedy.Views.SettingsView.SettingsView.DisplayWidth</v>
+        <f t="shared" ref="C9" si="2">_xlfn.TEXTJOIN(".",,A9,B9)</f>
+        <v>Feedy.Views.Main.Menu.PickPlace</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1123,32 +1108,32 @@
         <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.SettingsView.SettingsView.IpAddress</v>
+        <v>Feedy.Views.SettingsView.SettingsView.DisplayWidth</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1156,32 +1141,32 @@
         <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.SettingsView.SettingsView.Language</v>
+        <v>Feedy.Views.SettingsView.SettingsView.IpAddress</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1189,65 +1174,65 @@
         <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.SettingsView.SettingsView.Settings</v>
+        <v>Feedy.Views.SettingsView.SettingsView.Language</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.JobView.JobView.TB_Job</v>
+        <v>Feedy.Views.SettingsView.SettingsView.Settings</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1255,65 +1240,65 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>Feedy.Views.JobView.JobView.TB_Description</v>
+        <v>Feedy.Views.JobView.JobView.TB_Job</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:C19" si="3">_xlfn.TEXTJOIN(".",,A15,B15)</f>
-        <v>Feedy.Views.EventsView.EventsView.TB_Events</v>
+        <f t="shared" si="1"/>
+        <v>Feedy.Views.JobView.JobView.TB_Description</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1321,32 +1306,32 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="3"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Time</v>
+        <f t="shared" ref="C16:C20" si="3">_xlfn.TEXTJOIN(".",,A16,B16)</f>
+        <v>Feedy.Views.EventsView.EventsView.TB_Events</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,32 +1339,32 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="3"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Error</v>
+        <v>Feedy.Views.EventsView.EventsView.Col_Time</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1387,32 +1372,32 @@
         <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="3"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Message</v>
+        <v>Feedy.Views.EventsView.EventsView.Col_Error</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1420,65 +1405,65 @@
         <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="3"/>
-        <v>Feedy.Views.EventsView.EventsView.Col_Info</v>
+        <v>Feedy.Views.EventsView.EventsView.Col_Message</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20:C27" si="4">_xlfn.TEXTJOIN(".",,A20,B20)</f>
-        <v>Feedy.Views.LogView.LogView.TB_Log</v>
+        <f t="shared" si="3"/>
+        <v>Feedy.Views.EventsView.EventsView.Col_Info</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,32 +1471,32 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="4"/>
-        <v>Feedy.Views.LogView.LogView.Col_Time</v>
+        <f t="shared" ref="C21:C28" si="4">_xlfn.TEXTJOIN(".",,A21,B21)</f>
+        <v>Feedy.Views.LogView.LogView.TB_Log</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1519,32 +1504,32 @@
         <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="4"/>
-        <v>Feedy.Views.LogView.LogView.Col_Error</v>
+        <v>Feedy.Views.LogView.LogView.Col_Time</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,32 +1537,32 @@
         <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="4"/>
-        <v>Feedy.Views.LogView.LogView.Col_Message</v>
+        <v>Feedy.Views.LogView.LogView.Col_Error</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1585,65 +1570,65 @@
         <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="4"/>
-        <v>Feedy.Views.LogView.LogView.Col_Info</v>
+        <v>Feedy.Views.LogView.LogView.Col_Message</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="4"/>
-        <v>Feedy.Models.User.USER_operator</v>
+        <v>Feedy.Views.LogView.LogView.Col_Info</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1651,32 +1636,32 @@
         <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="4"/>
-        <v>Feedy.Models.User.USER_supervisor</v>
+        <v>Feedy.Models.User.USER_operator</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1684,38 +1669,71 @@
         <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="4"/>
+        <v>Feedy.Models.User.USER_supervisor</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="4"/>
         <v>Feedy.Models.User.USER_service</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>45</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>108</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>60</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>123</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
-      <sortCondition ref="C1:C7"/>
+  <autoFilter ref="A1:E28" xr:uid="{C817F5E3-1F66-4297-88B1-C53A1ED29012}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+      <sortCondition ref="C1:C8"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
